--- a/biology/Botanique/Chronoxyle/Chronoxyle.xlsx
+++ b/biology/Botanique/Chronoxyle/Chronoxyle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot chronoxyle[1], ou l'expression monolithe[2] de bois mort, est un néologisme qui désigne : 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot chronoxyle, ou l'expression monolithe de bois mort, est un néologisme qui désigne : 
 soit de gros et vieux arbres morts ou moribonds, qu’on laisse se décomposer sur pied, souvent après les avoir « mis en sécurité ».
 soit des pièces de bois agencées et conservées de telle sorte qu’elles constituent au fur et à mesure de leur décomposition une succession d'habitats susceptibles d’abriter la diversité des communautés d’espèces saproxyliques (qui consomment le bois mort ou vivent dessus en épiphytes) et qui sont en forte régression dans les forêts où la sylviculture ne laisse plus que peu de place pour les arbres anciens et les gros bois morts.
 Les chronoxyles visent pour des raisons pédagogiques, scientifiques ou de protection de la nature à compenser la régression des gros bois morts dans les forêts, dans des espaces boisés, espaces en cours de boisement ou à proximité de tels espaces. S’ils sont reconstitués, ils doivent donc être composés de bois sans pesticides et si possible provenant d’arbres ayant poussé dans un lieu épargné par les polluants rémanents (plomb, mercure, sel, etc.).  
@@ -517,13 +529,15 @@
           <t>Intérêt pour la biodiversité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vieux-bois (de 100 ans à 500 ans et plus selon les essences) que sont les arbres sénescents, comme les bois-morts encore debout ou couchés au sol ont un intérêt écologique majeur pour la biodiversité : 
-en tant qu'habitat irremplaçable pour une multitude d'invertébrés, communautés fongo-bactériennes[3], oiseaux, mammifères (dont chauve-souris), reptiles et amphibiens ;
+en tant qu'habitat irremplaçable pour une multitude d'invertébrés, communautés fongo-bactériennes, oiseaux, mammifères (dont chauve-souris), reptiles et amphibiens ;
 en tant que source (directe ou indirecte) de nourriture pour ces espèces, et indirectement pour leurs prédateurs ;
 en tant qu'élément important du cycle du carbone dans l'écosystème forestier, et source d'humus.
-La sylviculture durable commence à intégrer la protection ou réintroduire d'une quantité minimale de bois-mort dans les forêts. Des zones de réserve naturelle intégrale permettent de les protéger, mais le caractère fragmenté et l'insularisation écologique de nombreux boisements et forêts  rend ces mesures très insuffisantes pour l'entretien d'une biodiversité importante chez les communautés saproxyliques. C'est pourquoi certaines villes développent aussi une stratégie de réintroduction très significative de bois-mort dans leurs grands parcs urbains[4] (ex : Lille en France) qui a - notamment pour cette raison - obtenu un label de gestion écologique « Espaces verts écologiques » délivré par Ecocert en 2007). Les arboristes tendent également à intégrer ce thème, avec une notion de « Haute qualité arboricole » proposée à Nantes au Colloque Arbre et développement durable[5].
+La sylviculture durable commence à intégrer la protection ou réintroduire d'une quantité minimale de bois-mort dans les forêts. Des zones de réserve naturelle intégrale permettent de les protéger, mais le caractère fragmenté et l'insularisation écologique de nombreux boisements et forêts  rend ces mesures très insuffisantes pour l'entretien d'une biodiversité importante chez les communautés saproxyliques. C'est pourquoi certaines villes développent aussi une stratégie de réintroduction très significative de bois-mort dans leurs grands parcs urbains (ex : Lille en France) qui a - notamment pour cette raison - obtenu un label de gestion écologique « Espaces verts écologiques » délivré par Ecocert en 2007). Les arboristes tendent également à intégrer ce thème, avec une notion de « Haute qualité arboricole » proposée à Nantes au Colloque Arbre et développement durable.
 </t>
         </is>
       </c>
@@ -552,11 +566,13 @@
           <t>Types de Chronoxyles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Différents types de chronoxyles / Monolithes existent :
 Il s'agit généralement de formes en «Totems» (troncs plus ou moins ébranchés de 3 à 12 m de haut) ;
-« Chandelle » naturelle, in situ, debout sur ses racines, éventuellement mise en sécurité, voire, comme sur la photo ci-contre à gauche, retaillée de manière à imiter une cassure ou blessure due à l'âge, une tempête ou à la foudre afin d'en faciliter la colonisation[6] (ici à Lille, dans le Jardin Vauban, en 2006) ;
+« Chandelle » naturelle, in situ, debout sur ses racines, éventuellement mise en sécurité, voire, comme sur la photo ci-contre à gauche, retaillée de manière à imiter une cassure ou blessure due à l'âge, une tempête ou à la foudre afin d'en faciliter la colonisation (ici à Lille, dans le Jardin Vauban, en 2006) ;
 In situ, replantés debout (pour les sections longues) ou posés au sol, ou isolés du sol ;
 Ex situ, déplacés dans un endroit où ils ne gêneront personne ;
 Des troncs imposants cassés ou tronçonnés et posés au sol, éventuellement semi-enterrés ou partiellement dans l’eau, éventuellement reconstitués à partir d’arbres coupés, sur le site même ou non ;
@@ -588,7 +604,9 @@
           <t>Sécurité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les collectivités doivent à la fois prendre toutes les mesures raisonnables pour assurer la sécurité des passants, et protéger les habitats d'espèces protégées (dont le bois mort ou sénescent nécessaire à la survie de nombreux invertébrés et vertébrés protégés) ; deux objectifs qui semblent parfois contradictoires. Un arbre mort debout, même émondé (ébranché) présente au fur et à mesure de sa décomposition un risque croissant de chute en cas de tempête. Un tronc ancien peut s'effondrer sur lui-même. C'est pourquoi il est recommandé de signaler et suivre les arbres morts et chronoxyles situés au bord d'axes de passage. Ils feront l'objet de visites épisodiques et/ou peuvent être signalés par un panneau, voire isolés dans un périmètre de protection (ronces, buissons denses ou épineux, ou zone délimitée par un marquage de sécurité). Si le risque est jugé trop élevé, le tronc peut être coupé ou couché au sol où il achèvera sa décomposition.
 Les arbres et troncs anciens et creux peuvent aussi abriter des ruches sauvages ou nids de frelons qui peuvent alors également être signalés au public. Il arrive que des enfants cherchent à y mettre le feu, ou jettent des pétards dans les cavités, ou que par jeu, des promeneurs cherchent à pousser les troncs sur une pente ou dans l'eau. Les troncs isolés couchés à demi enterrés dans le sol restent humides et sont difficiles à déplacer.
@@ -620,10 +638,12 @@
           <t>« SOS Invertébrés »</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les invertébrés sont la majeure partie des espèces et représentent l’essentiel de la biomasse animale sur la terre et dans les eaux douces et marines. Ils comptent aussi parmi les espèces les plus menacées, rappelait déjà le Conseil de l'Europe en 1986, en demandant aux états membres d’identifier et protéger un réseau de vieilles forêts riches en bois mort.  Ces forêts sont en effet primordiales pour la survie des espèces saproxyliques (qui dégradent le bois mort et s’en nourrissent en produisant une partie essentielle de l’humus forestier).
-Les espèces (animales, fongiques et végétales) inféodée à la présence de bois mort comptent parmi les plus menacées[7] et notamment les invertébrés. Les principales causes de leur disparition sont la disparition des forêts anciennes naturellement riches en bois mort, et la disparition du bois mort sur d’immenses espaces urbanisés ou cultivés en Europe, et peut-être aussi la pollution globale de la biosphère par les pesticides.
+Les espèces (animales, fongiques et végétales) inféodée à la présence de bois mort comptent parmi les plus menacées et notamment les invertébrés. Les principales causes de leur disparition sont la disparition des forêts anciennes naturellement riches en bois mort, et la disparition du bois mort sur d’immenses espaces urbanisés ou cultivés en Europe, et peut-être aussi la pollution globale de la biosphère par les pesticides.
 En climat tempéré, dans une forêt naturelle mature, « vierge » d’exploitation ; 30 % environ du bois est mort. Et chaque tonne de ce bois mort nourrit plusieurs tonnes d’animaux, de champignons, de bactéries qui étaient à l’origine des riches sols forestiers conquis par l’agriculture.
 Comment aider ces espèces à survivre, alors que leur habitat disparaît ou a disparu, et qu’il faut de 200 à 600 ans pour produire les arbres qui leur conviendraient le mieux ?
 Les Chronoxyles, monolithes, (ou Monoliths pour les Anglo-saxons) sont un des moyens originaux de sauver les invertébrés saproxyliques et leurs prédateurs, en leur offrant un habitat provisoire de substitution, en attendant que dans les forêts, les haies, les jardins, on réapprenne à conserver du bois mort.
@@ -655,7 +675,9 @@
           <t>Décomposition des chronoxyles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la taille, le volume et la nature du chronoxyle, selon qu’il présente ou non des fentes, caries, trous facilitant l’entrée des décomposeurs, la dessiccation ralentira plus ou moins le processus de décomposition, surtout si le monolithe est isolé et exposé au soleil et au vent.
 Par exemple, dans le secteur boisé du parc de Windsor un monolithe de chêne est demeuré debout durant plus de 55 ans, alors qu'un monolithe voisin de hêtre s’est effondré après seulement 15 ans
@@ -695,7 +717,9 @@
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La notion de chronoxyle peut parfois approcher celle d'arbres remarquables, d'arbre vénéré ou respecté pour des raisons historiques, familiales (tombe ou esprit des ancêtres) paysagère ou religieuses. Ci-contre, deux arbres morts, ont été mis en sécurité et conservés dans les jardins de Kagoyamaen (Japon).
 </t>
